--- a/Spotify_API/src/test/resources/TestData/Data.xlsx
+++ b/Spotify_API/src/test/resources/TestData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Spotify_API\src\test\resources\TestData\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>testCase</t>
   </si>
@@ -372,12 +372,16 @@
   </si>
   <si>
     <t>/playlists/{playlist_id}/followers/contains</t>
+  </si>
+  <si>
+    <t>BQBrFedo6OQWFaqf1eRqBXwucGg9f0PRcCrY5sxN2mcsn5cRYs_zu3YhZOM1Lt5oVlJETI6qKay8gtbO6qEO_1CPlikWsAsjoueRVeDhpavkI0YfsKv1y1-hiEJXcuFHolP67rHFkUo_JOCdOGP2xFZyfhTQydkB8VfgAZIsqqqQ-4iCtlrOgvXvTDXvEDd00SqS92kjTFpKHLTZxgRm0wsp6U_PoOHthU2qHKz9OeZs_s24-UnuOJUqmbTX3hHiowQ6AHBD0sFpjet6jc9oP2HHtPGGPOlTAp1awwNwfqP98sgmvb-k62pc1EuywQryzZfJdLN5xI68uINK9CcZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -716,14 +720,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="113.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="113.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1068,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="45.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="53.42578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="36.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="33.85546875" collapsed="false"/>
+    <col min="7" max="16384" style="2" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Spotify_API/src/test/resources/TestData/Data.xlsx
+++ b/Spotify_API/src/test/resources/TestData/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
   <si>
     <t>testCase</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>BQBrFedo6OQWFaqf1eRqBXwucGg9f0PRcCrY5sxN2mcsn5cRYs_zu3YhZOM1Lt5oVlJETI6qKay8gtbO6qEO_1CPlikWsAsjoueRVeDhpavkI0YfsKv1y1-hiEJXcuFHolP67rHFkUo_JOCdOGP2xFZyfhTQydkB8VfgAZIsqqqQ-4iCtlrOgvXvTDXvEDd00SqS92kjTFpKHLTZxgRm0wsp6U_PoOHthU2qHKz9OeZs_s24-UnuOJUqmbTX3hHiowQ6AHBD0sFpjet6jc9oP2HHtPGGPOlTAp1awwNwfqP98sgmvb-k62pc1EuywQryzZfJdLN5xI68uINK9CcZ</t>
+  </si>
+  <si>
+    <t>BQALLyim8w3kc4ZgsaMZ8ILIlZSuDaeIu8dcyEPWBnHEnhymHc-dp5DizVUcVlfW64El4kD1WeQ-DkBtCr2hVgi55lzBOcom-jVckOAzXTtPnDA32GOz9_xPgI1qv6SzFN-tdlHKJcD0xKMjRQhixiCPKtwMuc33tqkUimrJGcp80WIUXSaP61yKGmD8DegUsjKVB13iw6TIeVYsENWhhKBGYxFtN9ypWflI8WzlVkbtXfssBCpx8s1IbG0P4ffO2I6Qly8h4HmxihKZFNqV5_SW-pyHDkDlebOn9M_g8ogmwF382XjHNQZVc4tuviuPjNBVt1BaQ6gbnS_3RukU</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1068,13 +1071,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="53.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="53.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="36.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="33.85546875" collapsed="false"/>
-    <col min="7" max="16384" style="2" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="33.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Spotify_API/src/test/resources/TestData/Data.xlsx
+++ b/Spotify_API/src/test/resources/TestData/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>testCase</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>BQALLyim8w3kc4ZgsaMZ8ILIlZSuDaeIu8dcyEPWBnHEnhymHc-dp5DizVUcVlfW64El4kD1WeQ-DkBtCr2hVgi55lzBOcom-jVckOAzXTtPnDA32GOz9_xPgI1qv6SzFN-tdlHKJcD0xKMjRQhixiCPKtwMuc33tqkUimrJGcp80WIUXSaP61yKGmD8DegUsjKVB13iw6TIeVYsENWhhKBGYxFtN9ypWflI8WzlVkbtXfssBCpx8s1IbG0P4ffO2I6Qly8h4HmxihKZFNqV5_SW-pyHDkDlebOn9M_g8ogmwF382XjHNQZVc4tuviuPjNBVt1BaQ6gbnS_3RukU</t>
+  </si>
+  <si>
+    <t>BQB7QKUX9l_DESoexsC_JzIkRywP0uKN-Wg1FZz-yUBgJKgGyqlxeGtFUvkUazGwV7dRHCeTOWQxHC_-0a74wKsPlQQOveOpifNW4Kd1Qkra-eDbU81zi3xV_zlAXB8ndOXk3AJPA1uXR8LAAf4Nx2mA8AzGg1Gmc_eDcX1Tx1jZ6SeCuJKHGokD2x4N_spbSSFYt9GPWbsa92pQFJGDJ4CVcgcBrwAo2qDshg035sA41VUFR41d4Hq68QYDPYt9itAMbP0w-Sl9eEReMK0NbKTRvk0vVBQ7sdLJoo2EZ2ADlB4Q7I5ZzM_9ab8ZkSpxMgfTX5aL-P2fpvGmCKjg</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
